--- a/data/trans_orig/IP07C29_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C29_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00AF2548-D722-40B6-8C49-7530EB3533FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{56B52583-9742-4026-B734-D7DF47E81894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5DB61378-B17A-46AF-BDA5-A6D491BE8586}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9953D48D-2E44-4979-9AD2-6FA89C0631A6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="184">
   <si>
     <t>Menores según frecuencia de tener suficiente tiempo par ti mismo/a en 2023 (Tasa respuesta: 30,0%)</t>
   </si>
@@ -74,88 +74,88 @@
     <t>17,16%</t>
   </si>
   <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
   </si>
   <si>
     <t>32,18%</t>
   </si>
   <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>59,3%</t>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
   </si>
   <si>
     <t>23,94%</t>
   </si>
   <si>
-    <t>12,0%</t>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
   </si>
   <si>
     <t>40,98%</t>
   </si>
   <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>74,96%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
     <t>43,95%</t>
   </si>
   <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
   </si>
   <si>
     <t>30,42%</t>
   </si>
   <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>50,43%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -167,7 +167,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>28,19%</t>
+    <t>25,48%</t>
   </si>
   <si>
     <t>0%</t>
@@ -179,7 +179,7 @@
     <t>3,14%</t>
   </si>
   <si>
-    <t>15,38%</t>
+    <t>16,84%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -188,13 +188,13 @@
     <t>5,33%</t>
   </si>
   <si>
-    <t>26,15%</t>
+    <t>31,44%</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>16,25%</t>
+    <t>16,21%</t>
   </si>
   <si>
     <t>100%</t>
@@ -206,52 +206,52 @@
     <t>44,66%</t>
   </si>
   <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
   </si>
   <si>
     <t>30,04%</t>
   </si>
   <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
   </si>
   <si>
     <t>38,41%</t>
   </si>
   <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>44,25%</t>
   </si>
   <si>
     <t>41,56%</t>
   </si>
   <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
   </si>
   <si>
     <t>51,27%</t>
   </si>
   <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
   </si>
   <si>
     <t>45,71%</t>
   </si>
   <si>
-    <t>40,15%</t>
+    <t>40,49%</t>
   </si>
   <si>
     <t>52,08%</t>
@@ -260,34 +260,34 @@
     <t>8,34%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
   </si>
   <si>
     <t>13,54%</t>
   </si>
   <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
   </si>
   <si>
     <t>10,56%</t>
   </si>
   <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
   </si>
   <si>
     <t>1,83%</t>
   </si>
   <si>
-    <t>0,64%</t>
+    <t>0,62%</t>
   </si>
   <si>
     <t>3,98%</t>
@@ -296,301 +296,295 @@
     <t>4,77%</t>
   </si>
   <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
   </si>
   <si>
     <t>3,09%</t>
   </si>
   <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>59,39%</t>
+  </si>
+  <si>
+    <t>44,57%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>41,07%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
     <t>1,77%</t>
   </si>
   <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>49,29%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
+    <t>6,81%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
   </si>
   <si>
     <t>4,38%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>2,27%</t>
+    <t>2,18%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
+    <t>4,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1005,7 +999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A447EF61-6DD8-402D-A939-CD08F0F6F6EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4989389-2EC6-4063-8CEF-65778C026306}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1865,7 +1859,7 @@
         <v>121</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>122</v>
@@ -2188,10 +2182,10 @@
         <v>166</v>
       </c>
       <c r="P24" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2206,13 +2200,13 @@
         <v>9023</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -2221,13 +2215,13 @@
         <v>7624</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -2236,13 +2230,13 @@
         <v>16647</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2257,13 +2251,13 @@
         <v>11702</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2272,13 +2266,13 @@
         <v>1275</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>14</v>
@@ -2287,13 +2281,13 @@
         <v>12977</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,7 +2343,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C29_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C29_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56B52583-9742-4026-B734-D7DF47E81894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8020E40F-8306-474B-A656-1744999354F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9953D48D-2E44-4979-9AD2-6FA89C0631A6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A2888828-51AC-499C-B668-549A5CFACDFC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="184">
-  <si>
-    <t>Menores según frecuencia de tener suficiente tiempo par ti mismo/a en 2023 (Tasa respuesta: 30,0%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="165">
+  <si>
+    <t>Menores según frecuencia de tener suficiente tiempo para si mismo/a en 2023 (Tasa respuesta: 30,0%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,133 +68,130 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>5,73%</t>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>74,74%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>25,48%</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
     <t>9,99%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>Un Poco</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
   </si>
   <si>
     <t>100%</t>
@@ -203,388 +200,334 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
   </si>
   <si>
     <t>53,0%</t>
   </si>
   <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>43,74%</t>
-  </si>
-  <si>
-    <t>62,17%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
+    <t>51,76%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>59,39%</t>
-  </si>
-  <si>
-    <t>44,57%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>41,07%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>56,47%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>53,6%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>45,04%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>54,15%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
   </si>
   <si>
     <t>12,02%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -999,7 +942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4989389-2EC6-4063-8CEF-65778C026306}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{942A89E0-9CFC-404F-8C3A-47F13783A9F3}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1117,10 +1060,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>2904</v>
+        <v>5217</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1132,10 +1075,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>4476</v>
+        <v>7554</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1147,10 +1090,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>7379</v>
+        <v>12772</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1171,7 +1114,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>8881</v>
+        <v>6219</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1186,7 +1129,7 @@
         <v>5</v>
       </c>
       <c r="I5" s="7">
-        <v>3320</v>
+        <v>3561</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1201,7 +1144,7 @@
         <v>15</v>
       </c>
       <c r="N5" s="7">
-        <v>12201</v>
+        <v>9781</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1219,10 +1162,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>3263</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1234,10 +1177,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I6" s="7">
-        <v>6114</v>
+        <v>2195</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1249,10 +1192,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N6" s="7">
-        <v>9377</v>
+        <v>2195</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1270,100 +1213,100 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>2848</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="K7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>4</v>
+      </c>
+      <c r="N7" s="7">
+        <v>3818</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M7" s="7">
-        <v>1</v>
-      </c>
-      <c r="N7" s="7">
-        <v>969</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>596</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" s="7">
-        <v>901</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="K8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>901</v>
+        <v>596</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1372,54 +1315,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7">
+        <v>12407</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="7">
         <v>21</v>
       </c>
-      <c r="D9" s="7">
-        <v>16918</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H9" s="7">
-        <v>18</v>
-      </c>
       <c r="I9" s="7">
-        <v>13910</v>
+        <v>16754</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M9" s="7">
         <v>39</v>
       </c>
       <c r="N9" s="7">
-        <v>30827</v>
+        <v>29162</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1428,46 +1371,46 @@
         <v>93</v>
       </c>
       <c r="D10" s="7">
-        <v>88022</v>
+        <v>66606</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>102</v>
+      </c>
+      <c r="I10" s="7">
+        <v>104534</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="7">
-        <v>65</v>
-      </c>
-      <c r="I10" s="7">
-        <v>44244</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>195</v>
+      </c>
+      <c r="N10" s="7">
+        <v>171140</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="7">
-        <v>158</v>
-      </c>
-      <c r="N10" s="7">
-        <v>132267</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1476,49 +1419,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="D11" s="7">
-        <v>81914</v>
+        <v>50749</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>84</v>
+      </c>
+      <c r="I11" s="7">
+        <v>64715</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="7">
-        <v>93</v>
-      </c>
-      <c r="I11" s="7">
-        <v>75518</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>161</v>
+      </c>
+      <c r="N11" s="7">
+        <v>115464</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="M11" s="7">
-        <v>186</v>
-      </c>
-      <c r="N11" s="7">
-        <v>157433</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1527,49 +1470,49 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" s="7">
-        <v>16432</v>
+        <v>39325</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="H12" s="7">
+        <v>24</v>
+      </c>
+      <c r="I12" s="7">
+        <v>28109</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="7">
-        <v>27</v>
-      </c>
-      <c r="I12" s="7">
-        <v>19950</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>45</v>
+      </c>
+      <c r="N12" s="7">
+        <v>67434</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="M12" s="7">
-        <v>46</v>
-      </c>
-      <c r="N12" s="7">
-        <v>36383</v>
-      </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1578,100 +1521,100 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>3600</v>
+        <v>1057</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>6</v>
+      </c>
+      <c r="I13" s="7">
+        <v>4592</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H13" s="7">
+      <c r="L13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13" s="7">
         <v>8</v>
       </c>
-      <c r="I13" s="7">
-        <v>7028</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="N13" s="7">
+        <v>5650</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M13" s="7">
-        <v>13</v>
-      </c>
-      <c r="N13" s="7">
-        <v>10628</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>7134</v>
+        <v>1576</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="7">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1576</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>555</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="M14" s="7">
-        <v>8</v>
-      </c>
-      <c r="N14" s="7">
-        <v>7689</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1680,102 +1623,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="D15" s="7">
-        <v>197103</v>
+        <v>159313</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H15" s="7">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="I15" s="7">
-        <v>147296</v>
+        <v>201950</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M15" s="7">
         <v>411</v>
       </c>
       <c r="N15" s="7">
-        <v>344399</v>
+        <v>361263</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7">
-        <v>23526</v>
+        <v>19191</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="7">
+        <v>35</v>
+      </c>
+      <c r="I16" s="7">
+        <v>28243</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>64</v>
+      </c>
+      <c r="N16" s="7">
+        <v>47434</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H16" s="7">
-        <v>27</v>
-      </c>
-      <c r="I16" s="7">
-        <v>18242</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M16" s="7">
-        <v>58</v>
-      </c>
-      <c r="N16" s="7">
-        <v>41768</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1784,49 +1727,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" s="7">
-        <v>18944</v>
+        <v>18773</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="7">
+        <v>31</v>
+      </c>
+      <c r="I17" s="7">
+        <v>22137</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>58</v>
+      </c>
+      <c r="N17" s="7">
+        <v>40910</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="7">
-        <v>25</v>
-      </c>
-      <c r="I17" s="7">
-        <v>18867</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="M17" s="7">
-        <v>51</v>
-      </c>
-      <c r="N17" s="7">
-        <v>37811</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1835,49 +1778,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>2570</v>
+        <v>788</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>2122</v>
+        <v>2313</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M18" s="7">
+        <v>4</v>
+      </c>
+      <c r="N18" s="7">
+        <v>3101</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="L18" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M18" s="7">
-        <v>6</v>
-      </c>
-      <c r="N18" s="7">
-        <v>4692</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1886,100 +1829,100 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D19" s="7">
-        <v>4454</v>
+        <v>0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>126</v>
+        <v>31</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>597</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M19" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N19" s="7">
-        <v>5050</v>
+        <v>0</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>3667</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>31</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>32</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>4387</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1988,49 +1931,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>57</v>
+      </c>
+      <c r="D21" s="7">
+        <v>38752</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="7">
         <v>69</v>
       </c>
-      <c r="D21" s="7">
-        <v>53160</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="H21" s="7">
-        <v>57</v>
-      </c>
       <c r="I21" s="7">
-        <v>40548</v>
+        <v>52693</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M21" s="7">
         <v>126</v>
       </c>
       <c r="N21" s="7">
-        <v>93708</v>
+        <v>91445</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2044,46 +1987,46 @@
         <v>128</v>
       </c>
       <c r="D22" s="7">
-        <v>114451</v>
+        <v>91014</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="H22" s="7">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="I22" s="7">
-        <v>66962</v>
+        <v>140331</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="N22" s="7">
-        <v>181414</v>
+        <v>231345</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2092,49 +2035,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D23" s="7">
-        <v>109739</v>
+        <v>75741</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I23" s="7">
-        <v>97705</v>
+        <v>90412</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="N23" s="7">
-        <v>207444</v>
+        <v>166154</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,49 +2086,49 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D24" s="7">
-        <v>22265</v>
+        <v>40113</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="H24" s="7">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I24" s="7">
-        <v>28187</v>
+        <v>32617</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="M24" s="7">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="N24" s="7">
-        <v>50452</v>
+        <v>72730</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>167</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2194,100 +2137,100 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D25" s="7">
-        <v>9023</v>
+        <v>2027</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>82</v>
+        <v>150</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="H25" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I25" s="7">
-        <v>7624</v>
+        <v>7440</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="M25" s="7">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N25" s="7">
-        <v>16647</v>
+        <v>9468</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="7">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>11702</v>
+        <v>1576</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>177</v>
+        <v>31</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="H26" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>1275</v>
+        <v>596</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>12977</v>
+        <v>2172</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>129</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2296,54 +2239,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="D27" s="7">
-        <v>267180</v>
+        <v>210472</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H27" s="7">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="I27" s="7">
-        <v>201754</v>
+        <v>271397</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M27" s="7">
         <v>576</v>
       </c>
       <c r="N27" s="7">
-        <v>468934</v>
+        <v>481869</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
